--- a/notebooks/RERE/input/RERE_NEDBEH_individuals.xlsx
+++ b/notebooks/RERE/input/RERE_NEDBEH_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/RERE/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504FD10A-F8AF-9C46-9E0D-1312B95909C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F7D77-4C12-1047-A34B-5DEDB2795DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3600" windowWidth="35860" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19280" yWindow="7700" windowWidth="30240" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="352">
   <si>
     <t>PMID</t>
   </si>
@@ -475,9 +475,6 @@
     <t>HP:0000582</t>
   </si>
   <si>
-    <t>3-4 finger syndactyly</t>
-  </si>
-  <si>
     <t>HP:0006097</t>
   </si>
   <si>
@@ -965,6 +962,120 @@
   </si>
   <si>
     <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>PMID:36053530</t>
+  </si>
+  <si>
+    <t>Phenotypic variability in RERE-related disorders and the first report of an inherited variant</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>Single umbilical artery</t>
+  </si>
+  <si>
+    <t>HP:0001195</t>
+  </si>
+  <si>
+    <t>Secondary microcephaly</t>
+  </si>
+  <si>
+    <t>HP:0005484</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>P5Y</t>
+  </si>
+  <si>
+    <t>Absent speech</t>
+  </si>
+  <si>
+    <t>HP:0001344</t>
+  </si>
+  <si>
+    <t>Cavum septum pellucidum</t>
+  </si>
+  <si>
+    <t>HP:0002389</t>
+  </si>
+  <si>
+    <t>Medial flaring of the eyebrow</t>
+  </si>
+  <si>
+    <t>HP:0010747</t>
+  </si>
+  <si>
+    <t>Thickened helices</t>
+  </si>
+  <si>
+    <t>HP:0000391</t>
+  </si>
+  <si>
+    <t>Broad-based gait</t>
+  </si>
+  <si>
+    <t>HP:0002136</t>
+  </si>
+  <si>
+    <t>Delayed gross motor development</t>
+  </si>
+  <si>
+    <t>HP:0002194</t>
+  </si>
+  <si>
+    <t>P1Y2M</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>HP:0000750</t>
+  </si>
+  <si>
+    <t>P1Y6M</t>
+  </si>
+  <si>
+    <t>P2Y3M</t>
+  </si>
+  <si>
+    <t>Hypermetropia</t>
+  </si>
+  <si>
+    <t>HP:0000540</t>
+  </si>
+  <si>
+    <t>c.1512dup</t>
+  </si>
+  <si>
+    <t>NP_036234.3:p.(Tyr505ValfsTer37)</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>HP:0000545</t>
+  </si>
+  <si>
+    <t>NP_036234.3:p.(Ser1434Pro)</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>P35Y</t>
+  </si>
+  <si>
+    <t>3-4 finger osseus syndactyly</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1158,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1349,18 +1460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DQ21"/>
+  <dimension ref="A1:EB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CN2" sqref="CN2"/>
+    <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
+      <selection activeCell="DI1" sqref="DI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="51" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="53" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:132" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,43 +1528,43 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>18</v>
@@ -1464,268 +1576,301 @@
         <v>20</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>153</v>
+        <v>283</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CE1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CB1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CK1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="CI1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="CT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="CN1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CZ1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="DH1" s="2" t="s">
-        <v>217</v>
+        <v>351</v>
       </c>
       <c r="DI1" s="2" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="DJ1" s="2" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="DK1" s="2" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="DL1" s="2" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="DM1" s="2" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="DN1" s="2" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="DO1" s="2" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="DP1" s="2" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="DQ1" s="2" t="s">
-        <v>307</v>
+        <v>281</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="DT1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="DU1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DV1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="DW1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="DX1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="DY1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="DZ1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="EA1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="EB1" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1781,43 +1926,43 @@
         <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF2" t="s">
         <v>58</v>
@@ -1829,270 +1974,303 @@
         <v>60</v>
       </c>
       <c r="AI2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ2" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AK2" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="AL2" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="AM2" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="AN2" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="AO2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AP2" t="s">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c r="AQ2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS2" t="s">
         <v>61</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>62</v>
       </c>
-      <c r="AS2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV2" t="s">
         <v>150</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>63</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>148</v>
       </c>
-      <c r="AW2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>124</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>122</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>64</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>146</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>65</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>66</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>67</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>68</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>144</v>
       </c>
-      <c r="BG2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>141</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>69</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>70</v>
       </c>
-      <c r="BK2" t="s">
-        <v>269</v>
-      </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>268</v>
+      </c>
+      <c r="BN2" t="s">
         <v>71</v>
       </c>
-      <c r="BM2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP2" t="s">
         <v>72</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>73</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>104</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BS2" t="s">
         <v>74</v>
       </c>
-      <c r="BR2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU2" t="s">
         <v>107</v>
       </c>
-      <c r="BT2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
+        <v>343</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>347</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY2" t="s">
         <v>135</v>
       </c>
-      <c r="BV2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>265</v>
-      </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CB2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CC2" t="s">
         <v>117</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>231</v>
-      </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
+        <v>230</v>
+      </c>
+      <c r="CE2" t="s">
         <v>119</v>
       </c>
-      <c r="CB2" t="s">
-        <v>305</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>279</v>
-      </c>
-      <c r="CD2" t="s">
+      <c r="CF2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>278</v>
+      </c>
+      <c r="CH2" t="s">
         <v>76</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CI2" t="s">
         <v>77</v>
       </c>
-      <c r="CF2" t="s">
-        <v>229</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CK2" t="s">
         <v>78</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CL2" t="s">
         <v>79</v>
       </c>
-      <c r="CI2" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>267</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>271</v>
-      </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>334</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>82</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CR2" t="s">
+        <v>336</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>339</v>
+      </c>
+      <c r="CT2" t="s">
         <v>80</v>
       </c>
-      <c r="CN2" t="s">
-        <v>227</v>
-      </c>
-      <c r="CO2" t="s">
+      <c r="CU2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>326</v>
+      </c>
+      <c r="CW2" t="s">
         <v>115</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CX2" t="s">
         <v>130</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CY2" t="s">
         <v>133</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CZ2" t="s">
         <v>113</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DA2" t="s">
         <v>81</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DB2" t="s">
         <v>83</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DC2" t="s">
         <v>84</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DD2" t="s">
         <v>109</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DE2" t="s">
         <v>111</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DF2" t="s">
         <v>126</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DG2" t="s">
         <v>128</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>152</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>162</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>201</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>213</v>
-      </c>
       <c r="DH2" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="DI2" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="DJ2" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="DK2" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="DL2" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
       <c r="DM2" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="DN2" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="DO2" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="DP2" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="DQ2" t="s">
-        <v>308</v>
+        <v>282</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>274</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>286</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>288</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>292</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>294</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>307</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>320</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>322</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -2193,9 +2371,6 @@
       <c r="AI3" t="s">
         <v>131</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>131</v>
-      </c>
       <c r="AK3" t="s">
         <v>131</v>
       </c>
@@ -2214,9 +2389,6 @@
       <c r="AP3" t="s">
         <v>131</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>131</v>
-      </c>
       <c r="AR3" t="s">
         <v>131</v>
       </c>
@@ -2244,32 +2416,32 @@
       <c r="AZ3" t="s">
         <v>131</v>
       </c>
+      <c r="BA3" t="s">
+        <v>131</v>
+      </c>
       <c r="BB3" t="s">
         <v>131</v>
       </c>
-      <c r="BC3" t="s">
-        <v>105</v>
-      </c>
       <c r="BD3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="BE3" t="s">
         <v>105</v>
       </c>
       <c r="BF3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK3" t="s">
         <v>102</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>131</v>
-      </c>
       <c r="BL3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="BM3" t="s">
         <v>131</v>
@@ -2278,78 +2450,60 @@
         <v>105</v>
       </c>
       <c r="BO3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>101</v>
       </c>
-      <c r="BP3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BS3" t="s">
+      <c r="BR3" t="s">
         <v>105</v>
       </c>
       <c r="BU3" t="s">
         <v>105</v>
       </c>
-      <c r="BX3" t="s">
-        <v>131</v>
-      </c>
       <c r="BY3" t="s">
         <v>105</v>
       </c>
-      <c r="BZ3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA3" t="s">
+      <c r="CB3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC3" t="s">
         <v>105</v>
       </c>
       <c r="CD3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CE3" t="s">
         <v>105</v>
       </c>
-      <c r="CF3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>105</v>
-      </c>
       <c r="CH3" t="s">
         <v>105</v>
       </c>
       <c r="CI3" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>105</v>
       </c>
       <c r="CL3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CM3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CP3" t="s">
         <v>131</v>
       </c>
       <c r="CQ3" t="s">
         <v>131</v>
       </c>
-      <c r="CR3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>105</v>
-      </c>
       <c r="CT3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV3" t="s">
         <v>105</v>
       </c>
       <c r="CW3" t="s">
@@ -2362,10 +2516,10 @@
         <v>131</v>
       </c>
       <c r="CZ3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DA3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DB3" t="s">
         <v>131</v>
@@ -2374,10 +2528,10 @@
         <v>131</v>
       </c>
       <c r="DD3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DE3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DF3" t="s">
         <v>131</v>
@@ -2388,10 +2542,34 @@
       <c r="DH3" t="s">
         <v>131</v>
       </c>
+      <c r="DI3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -2492,9 +2670,6 @@
       <c r="AI4" t="s">
         <v>131</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>131</v>
-      </c>
       <c r="AK4" t="s">
         <v>131</v>
       </c>
@@ -2513,9 +2688,6 @@
       <c r="AP4" t="s">
         <v>131</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>131</v>
-      </c>
       <c r="AR4" t="s">
         <v>131</v>
       </c>
@@ -2535,108 +2707,93 @@
         <v>131</v>
       </c>
       <c r="AX4" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AY4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA4" t="s">
         <v>101</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>131</v>
-      </c>
       <c r="BB4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>131</v>
+        <v>131</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>105</v>
       </c>
       <c r="BE4" t="s">
         <v>131</v>
       </c>
-      <c r="BF4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI4" t="s">
+      <c r="BG4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK4" t="s">
         <v>102</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>131</v>
-      </c>
       <c r="BL4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="BM4" t="s">
         <v>131</v>
       </c>
+      <c r="BN4" t="s">
+        <v>131</v>
+      </c>
       <c r="BO4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>101</v>
       </c>
-      <c r="BU4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>105</v>
-      </c>
       <c r="BY4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CC4" t="s">
         <v>131</v>
       </c>
       <c r="CD4" t="s">
         <v>131</v>
       </c>
       <c r="CE4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG4" t="s">
         <v>131</v>
       </c>
       <c r="CH4" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CI4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK4" t="s">
         <v>131</v>
       </c>
       <c r="CL4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CM4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CQ4" t="s">
-        <v>105</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CT4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU4" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW4" t="s">
         <v>131</v>
       </c>
       <c r="CX4" t="s">
@@ -2649,7 +2806,7 @@
         <v>131</v>
       </c>
       <c r="DA4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DB4" t="s">
         <v>131</v>
@@ -2660,22 +2817,43 @@
       <c r="DD4" t="s">
         <v>131</v>
       </c>
-      <c r="DE4" t="s">
-        <v>131</v>
-      </c>
       <c r="DF4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DG4" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DH4" t="s">
         <v>131</v>
       </c>
+      <c r="DI4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -2711,7 +2889,7 @@
         <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O5" t="s">
         <v>100</v>
@@ -2776,35 +2954,29 @@
       <c r="AI5" t="s">
         <v>131</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>131</v>
-      </c>
       <c r="AK5" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AL5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AN5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AO5" t="s">
         <v>131</v>
       </c>
       <c r="AP5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AR5" t="s">
         <v>105</v>
       </c>
       <c r="AS5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AT5" t="s">
         <v>105</v>
@@ -2819,37 +2991,37 @@
         <v>131</v>
       </c>
       <c r="AX5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AY5" t="s">
         <v>131</v>
       </c>
       <c r="AZ5" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="BA5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC5" t="s">
         <v>142</v>
       </c>
-      <c r="BB5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>131</v>
       </c>
       <c r="BE5" t="s">
         <v>131</v>
       </c>
-      <c r="BF5" t="s">
-        <v>142</v>
+      <c r="BG5" t="s">
+        <v>131</v>
       </c>
       <c r="BH5" t="s">
         <v>142</v>
       </c>
-      <c r="BI5" t="s">
-        <v>131</v>
-      </c>
       <c r="BJ5" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="BK5" t="s">
         <v>131</v>
@@ -2858,75 +3030,60 @@
         <v>105</v>
       </c>
       <c r="BM5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN5" t="s">
         <v>105</v>
       </c>
       <c r="BO5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>105</v>
+        <v>105</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>131</v>
       </c>
       <c r="BY5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA5" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>105</v>
+      </c>
+      <c r="CC5" t="s">
         <v>131</v>
       </c>
       <c r="CD5" t="s">
         <v>131</v>
       </c>
       <c r="CE5" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG5" t="s">
         <v>131</v>
       </c>
       <c r="CH5" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CI5" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK5" t="s">
         <v>131</v>
       </c>
       <c r="CL5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CM5" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP5" t="s">
         <v>131</v>
       </c>
       <c r="CQ5" t="s">
         <v>131</v>
       </c>
-      <c r="CR5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>105</v>
-      </c>
       <c r="CT5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU5" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV5" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW5" t="s">
         <v>131</v>
       </c>
       <c r="CX5" t="s">
@@ -2936,36 +3093,57 @@
         <v>131</v>
       </c>
       <c r="CZ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DH5" t="s">
         <v>101</v>
       </c>
-      <c r="DA5" t="s">
-        <v>105</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>131</v>
-      </c>
-      <c r="DH5" t="s">
+      <c r="DI5" t="s">
+        <v>105</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -2989,25 +3167,25 @@
         <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
         <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M6" t="s">
         <v>101</v>
       </c>
       <c r="N6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O6" t="s">
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q6" t="s">
         <v>56</v>
@@ -3066,9 +3244,6 @@
       <c r="AI6" t="s">
         <v>105</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>131</v>
-      </c>
       <c r="AK6" t="s">
         <v>131</v>
       </c>
@@ -3087,14 +3262,11 @@
       <c r="AP6" t="s">
         <v>131</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>105</v>
-      </c>
       <c r="AR6" t="s">
         <v>131</v>
       </c>
       <c r="AS6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AT6" t="s">
         <v>131</v>
@@ -3115,24 +3287,24 @@
         <v>131</v>
       </c>
       <c r="AZ6" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>131</v>
       </c>
       <c r="BB6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD6" t="s">
         <v>56</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BE6" t="s">
         <v>56</v>
       </c>
-      <c r="BE6" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ6" t="s">
+      <c r="BG6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH6" t="s">
         <v>131</v>
       </c>
       <c r="BK6" t="s">
@@ -3144,73 +3316,58 @@
       <c r="BM6" t="s">
         <v>131</v>
       </c>
+      <c r="BN6" t="s">
+        <v>131</v>
+      </c>
       <c r="BO6" t="s">
         <v>131</v>
       </c>
-      <c r="BU6" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX6" t="s">
+      <c r="BQ6" t="s">
         <v>131</v>
       </c>
       <c r="BY6" t="s">
-        <v>131</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC6" t="s">
         <v>131</v>
       </c>
       <c r="CD6" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CE6" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG6" t="s">
         <v>131</v>
       </c>
       <c r="CH6" t="s">
         <v>105</v>
       </c>
       <c r="CI6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK6" t="s">
         <v>131</v>
       </c>
       <c r="CL6" t="s">
         <v>105</v>
       </c>
       <c r="CM6" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP6" t="s">
         <v>131</v>
       </c>
       <c r="CQ6" t="s">
-        <v>131</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CT6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU6" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV6" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW6" t="s">
         <v>131</v>
       </c>
       <c r="CX6" t="s">
@@ -3226,17 +3383,14 @@
         <v>131</v>
       </c>
       <c r="DB6" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="DC6" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="DD6" t="s">
         <v>131</v>
       </c>
-      <c r="DE6" t="s">
-        <v>131</v>
-      </c>
       <c r="DF6" t="s">
         <v>131</v>
       </c>
@@ -3246,10 +3400,34 @@
       <c r="DH6" t="s">
         <v>131</v>
       </c>
+      <c r="DI6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>105</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>105</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -3273,19 +3451,19 @@
         <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M7" t="s">
         <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O7" t="s">
         <v>100</v>
@@ -3350,9 +3528,6 @@
       <c r="AI7" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>131</v>
-      </c>
       <c r="AK7" t="s">
         <v>131</v>
       </c>
@@ -3371,9 +3546,6 @@
       <c r="AP7" t="s">
         <v>131</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>131</v>
-      </c>
       <c r="AR7" t="s">
         <v>131</v>
       </c>
@@ -3399,27 +3571,27 @@
         <v>131</v>
       </c>
       <c r="AZ7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="BF7" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH7" t="s">
         <v>131</v>
       </c>
       <c r="BK7" t="s">
@@ -3432,81 +3604,66 @@
         <v>131</v>
       </c>
       <c r="BN7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="BO7" t="s">
         <v>131</v>
       </c>
+      <c r="BP7" t="s">
+        <v>105</v>
+      </c>
       <c r="BQ7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS7" t="s">
         <v>105</v>
       </c>
       <c r="BX7" t="s">
         <v>105</v>
       </c>
       <c r="BY7" t="s">
-        <v>131</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CC7" t="s">
         <v>131</v>
       </c>
       <c r="CD7" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CE7" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG7" t="s">
         <v>131</v>
       </c>
       <c r="CH7" t="s">
         <v>105</v>
       </c>
       <c r="CI7" t="s">
-        <v>185</v>
+        <v>105</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>131</v>
       </c>
       <c r="CL7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CM7" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="CQ7" t="s">
         <v>131</v>
       </c>
-      <c r="CR7" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>131</v>
-      </c>
       <c r="CT7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU7" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW7" t="s">
         <v>131</v>
       </c>
       <c r="CX7" t="s">
@@ -3530,9 +3687,6 @@
       <c r="DD7" t="s">
         <v>131</v>
       </c>
-      <c r="DE7" t="s">
-        <v>131</v>
-      </c>
       <c r="DF7" t="s">
         <v>131</v>
       </c>
@@ -3542,10 +3696,34 @@
       <c r="DH7" t="s">
         <v>131</v>
       </c>
+      <c r="DI7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -3569,25 +3747,25 @@
         <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K8" t="s">
         <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M8" t="s">
         <v>101</v>
       </c>
       <c r="N8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O8" t="s">
         <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q8" t="s">
         <v>56</v>
@@ -3646,9 +3824,6 @@
       <c r="AI8" t="s">
         <v>131</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>131</v>
-      </c>
       <c r="AK8" t="s">
         <v>131</v>
       </c>
@@ -3667,9 +3842,6 @@
       <c r="AP8" t="s">
         <v>131</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>131</v>
-      </c>
       <c r="AR8" t="s">
         <v>131</v>
       </c>
@@ -3686,33 +3858,33 @@
         <v>131</v>
       </c>
       <c r="AW8" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AX8" t="s">
         <v>131</v>
       </c>
       <c r="AY8" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AZ8" t="s">
         <v>131</v>
       </c>
+      <c r="BA8" t="s">
+        <v>131</v>
+      </c>
       <c r="BB8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD8" t="s">
         <v>56</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BE8" t="s">
         <v>56</v>
       </c>
-      <c r="BE8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BG8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH8" t="s">
         <v>131</v>
       </c>
       <c r="BK8" t="s">
@@ -3724,65 +3896,50 @@
       <c r="BM8" t="s">
         <v>131</v>
       </c>
+      <c r="BN8" t="s">
+        <v>131</v>
+      </c>
       <c r="BO8" t="s">
         <v>131</v>
       </c>
-      <c r="BU8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>56</v>
+      <c r="BQ8" t="s">
+        <v>131</v>
       </c>
       <c r="BY8" t="s">
         <v>56</v>
       </c>
-      <c r="BZ8" t="s">
+      <c r="CB8" t="s">
         <v>56</v>
       </c>
-      <c r="CA8" t="s">
+      <c r="CC8" t="s">
         <v>56</v>
       </c>
       <c r="CD8" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="CE8" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="CH8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL8" t="s">
         <v>56</v>
       </c>
-      <c r="CI8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>105</v>
-      </c>
       <c r="CM8" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP8" t="s">
         <v>131</v>
       </c>
       <c r="CQ8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CT8" t="s">
         <v>105</v>
@@ -3790,36 +3947,33 @@
       <c r="CU8" t="s">
         <v>105</v>
       </c>
-      <c r="CV8" t="s">
-        <v>131</v>
-      </c>
       <c r="CW8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DE8" t="s">
         <v>56</v>
       </c>
-      <c r="CX8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CY8" t="s">
-        <v>131</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>131</v>
-      </c>
-      <c r="DA8" t="s">
-        <v>131</v>
-      </c>
-      <c r="DB8" t="s">
-        <v>131</v>
-      </c>
-      <c r="DC8" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD8" t="s">
-        <v>105</v>
-      </c>
-      <c r="DE8" t="s">
-        <v>105</v>
-      </c>
       <c r="DF8" t="s">
         <v>131</v>
       </c>
@@ -3829,10 +3983,34 @@
       <c r="DH8" t="s">
         <v>131</v>
       </c>
+      <c r="DI8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>105</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>105</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>105</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -3856,19 +4034,19 @@
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M9" t="s">
         <v>101</v>
       </c>
       <c r="N9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O9" t="s">
         <v>100</v>
@@ -3933,9 +4111,6 @@
       <c r="AI9" t="s">
         <v>131</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>131</v>
-      </c>
       <c r="AK9" t="s">
         <v>131</v>
       </c>
@@ -3954,9 +4129,6 @@
       <c r="AP9" t="s">
         <v>131</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>131</v>
-      </c>
       <c r="AR9" t="s">
         <v>131</v>
       </c>
@@ -3967,13 +4139,13 @@
         <v>131</v>
       </c>
       <c r="AU9" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AV9" t="s">
         <v>131</v>
       </c>
       <c r="AW9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AX9" t="s">
         <v>131</v>
@@ -3984,100 +4156,85 @@
       <c r="AZ9" t="s">
         <v>131</v>
       </c>
-      <c r="BB9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>105</v>
+      <c r="BA9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>131</v>
       </c>
       <c r="BK9" t="s">
         <v>131</v>
       </c>
       <c r="BL9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="BM9" t="s">
         <v>131</v>
       </c>
+      <c r="BN9" t="s">
+        <v>131</v>
+      </c>
       <c r="BO9" t="s">
         <v>131</v>
       </c>
-      <c r="BU9" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX9" t="s">
+      <c r="BQ9" t="s">
         <v>131</v>
       </c>
       <c r="BY9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>105</v>
-      </c>
-      <c r="CA9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC9" t="s">
         <v>131</v>
       </c>
       <c r="CD9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CE9" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>105</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>131</v>
-      </c>
-      <c r="CH9" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>131</v>
       </c>
       <c r="CI9" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL9" s="3" t="s">
         <v>105</v>
       </c>
       <c r="CM9" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP9" t="s">
         <v>131</v>
       </c>
       <c r="CQ9" t="s">
-        <v>131</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CT9" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU9" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV9" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW9" t="s">
         <v>131</v>
       </c>
       <c r="CX9" t="s">
@@ -4093,7 +4250,7 @@
         <v>131</v>
       </c>
       <c r="DB9" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="DC9" t="s">
         <v>131</v>
@@ -4101,9 +4258,6 @@
       <c r="DD9" t="s">
         <v>131</v>
       </c>
-      <c r="DE9" t="s">
-        <v>131</v>
-      </c>
       <c r="DF9" t="s">
         <v>131</v>
       </c>
@@ -4113,10 +4267,34 @@
       <c r="DH9" t="s">
         <v>131</v>
       </c>
+      <c r="DI9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>105</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -4140,19 +4318,19 @@
         <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10" t="s">
         <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O10" t="s">
         <v>100</v>
@@ -4217,9 +4395,6 @@
       <c r="AI10" t="s">
         <v>131</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>131</v>
-      </c>
       <c r="AK10" t="s">
         <v>131</v>
       </c>
@@ -4238,26 +4413,23 @@
       <c r="AP10" t="s">
         <v>131</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>131</v>
-      </c>
       <c r="AR10" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AS10" t="s">
         <v>131</v>
       </c>
       <c r="AT10" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AU10" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AV10" t="s">
         <v>131</v>
       </c>
       <c r="AW10" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AX10" t="s">
         <v>131</v>
@@ -4268,25 +4440,25 @@
       <c r="AZ10" t="s">
         <v>131</v>
       </c>
-      <c r="BB10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>105</v>
+      <c r="BA10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="BF10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH10" t="s">
         <v>131</v>
       </c>
       <c r="BK10" t="s">
@@ -4298,83 +4470,68 @@
       <c r="BM10" t="s">
         <v>131</v>
       </c>
+      <c r="BN10" t="s">
+        <v>131</v>
+      </c>
       <c r="BO10" t="s">
         <v>131</v>
       </c>
-      <c r="BR10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>131</v>
+      <c r="BQ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>105</v>
       </c>
       <c r="BY10" t="s">
         <v>131</v>
       </c>
-      <c r="BZ10" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA10" t="s">
+      <c r="CB10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC10" t="s">
         <v>131</v>
       </c>
       <c r="CD10" t="s">
         <v>131</v>
       </c>
       <c r="CE10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CG10" t="s">
         <v>131</v>
       </c>
       <c r="CH10" t="s">
         <v>131</v>
       </c>
       <c r="CI10" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>105</v>
+      </c>
+      <c r="CK10" t="s">
         <v>131</v>
       </c>
       <c r="CL10" t="s">
         <v>131</v>
       </c>
       <c r="CM10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP10" t="s">
         <v>131</v>
       </c>
       <c r="CQ10" t="s">
         <v>131</v>
       </c>
-      <c r="CR10" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>131</v>
-      </c>
       <c r="CT10" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU10" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV10" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW10" t="s">
         <v>131</v>
       </c>
       <c r="CX10" t="s">
         <v>131</v>
       </c>
       <c r="CY10" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="CZ10" t="s">
         <v>131</v>
@@ -4391,11 +4548,8 @@
       <c r="DD10" t="s">
         <v>131</v>
       </c>
-      <c r="DE10" t="s">
-        <v>131</v>
-      </c>
       <c r="DF10" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="DG10" t="s">
         <v>105</v>
@@ -4403,10 +4557,34 @@
       <c r="DH10" t="s">
         <v>131</v>
       </c>
+      <c r="DI10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>105</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>105</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -4430,19 +4608,19 @@
         <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
       </c>
       <c r="L11" t="s">
+        <v>214</v>
+      </c>
+      <c r="M11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" t="s">
         <v>215</v>
-      </c>
-      <c r="M11" t="s">
-        <v>219</v>
-      </c>
-      <c r="N11" t="s">
-        <v>216</v>
       </c>
       <c r="O11" t="s">
         <v>100</v>
@@ -4507,9 +4685,6 @@
       <c r="AI11" t="s">
         <v>131</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>131</v>
-      </c>
       <c r="AK11" t="s">
         <v>131</v>
       </c>
@@ -4528,9 +4703,6 @@
       <c r="AP11" t="s">
         <v>131</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>131</v>
-      </c>
       <c r="AR11" t="s">
         <v>131</v>
       </c>
@@ -4558,22 +4730,22 @@
       <c r="AZ11" t="s">
         <v>131</v>
       </c>
-      <c r="BB11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ11" t="s">
+      <c r="BA11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH11" t="s">
         <v>131</v>
       </c>
       <c r="BK11" t="s">
@@ -4585,73 +4757,58 @@
       <c r="BM11" t="s">
         <v>131</v>
       </c>
+      <c r="BN11" t="s">
+        <v>131</v>
+      </c>
       <c r="BO11" t="s">
         <v>131</v>
       </c>
-      <c r="BU11" t="s">
-        <v>131</v>
-      </c>
-      <c r="BX11" t="s">
+      <c r="BQ11" t="s">
         <v>131</v>
       </c>
       <c r="BY11" t="s">
-        <v>105</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>131</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>131</v>
+        <v>131</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>105</v>
       </c>
       <c r="CD11" t="s">
         <v>131</v>
       </c>
       <c r="CE11" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG11" t="s">
         <v>131</v>
       </c>
       <c r="CH11" t="s">
         <v>131</v>
       </c>
       <c r="CI11" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK11" t="s">
         <v>131</v>
       </c>
       <c r="CL11" t="s">
         <v>131</v>
       </c>
       <c r="CM11" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP11" t="s">
         <v>131</v>
       </c>
       <c r="CQ11" t="s">
         <v>131</v>
       </c>
-      <c r="CR11" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>105</v>
-      </c>
       <c r="CT11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU11" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV11" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW11" t="s">
         <v>131</v>
       </c>
       <c r="CX11" t="s">
@@ -4664,7 +4821,7 @@
         <v>131</v>
       </c>
       <c r="DA11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="DB11" t="s">
         <v>131</v>
@@ -4675,22 +4832,43 @@
       <c r="DD11" t="s">
         <v>131</v>
       </c>
-      <c r="DE11" t="s">
-        <v>131</v>
-      </c>
       <c r="DF11" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="DG11" t="s">
         <v>131</v>
       </c>
       <c r="DH11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>105</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -4714,25 +4892,25 @@
         <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M12" t="s">
         <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O12" t="s">
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
@@ -4791,9 +4969,6 @@
       <c r="AI12" t="s">
         <v>131</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>131</v>
-      </c>
       <c r="AK12" t="s">
         <v>131</v>
       </c>
@@ -4812,9 +4987,6 @@
       <c r="AP12" t="s">
         <v>131</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>131</v>
-      </c>
       <c r="AR12" t="s">
         <v>131</v>
       </c>
@@ -4842,100 +5014,85 @@
       <c r="AZ12" t="s">
         <v>131</v>
       </c>
-      <c r="BB12" s="3" t="s">
+      <c r="BA12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BE12" t="s">
         <v>56</v>
       </c>
-      <c r="BE12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ12" t="s">
+      <c r="BG12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL12" t="s">
         <v>56</v>
       </c>
-      <c r="BK12" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>131</v>
-      </c>
       <c r="BM12" t="s">
         <v>131</v>
       </c>
+      <c r="BN12" t="s">
+        <v>131</v>
+      </c>
       <c r="BO12" t="s">
         <v>131</v>
       </c>
-      <c r="BU12" t="s">
-        <v>56</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>56</v>
+      <c r="BQ12" t="s">
+        <v>131</v>
       </c>
       <c r="BY12" t="s">
         <v>56</v>
       </c>
-      <c r="BZ12" t="s">
+      <c r="CB12" t="s">
         <v>56</v>
       </c>
-      <c r="CA12" t="s">
+      <c r="CC12" t="s">
         <v>56</v>
       </c>
       <c r="CD12" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="CE12" t="s">
-        <v>105</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="CH12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL12" t="s">
         <v>56</v>
       </c>
-      <c r="CI12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>131</v>
-      </c>
       <c r="CM12" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>105</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP12" t="s">
         <v>131</v>
       </c>
       <c r="CQ12" t="s">
         <v>131</v>
       </c>
-      <c r="CR12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>131</v>
-      </c>
       <c r="CT12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="CU12" t="s">
-        <v>131</v>
-      </c>
-      <c r="CV12" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW12" t="s">
         <v>131</v>
       </c>
       <c r="CX12" t="s">
@@ -4959,9 +5116,6 @@
       <c r="DD12" t="s">
         <v>131</v>
       </c>
-      <c r="DE12" t="s">
-        <v>131</v>
-      </c>
       <c r="DF12" t="s">
         <v>131</v>
       </c>
@@ -4971,13 +5125,37 @@
       <c r="DH12" t="s">
         <v>131</v>
       </c>
+      <c r="DI12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
         <v>232</v>
-      </c>
-      <c r="B13" t="s">
-        <v>233</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -4998,19 +5176,19 @@
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
       </c>
       <c r="L13" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N13" t="s">
         <v>235</v>
-      </c>
-      <c r="M13" t="s">
-        <v>244</v>
-      </c>
-      <c r="N13" t="s">
-        <v>236</v>
       </c>
       <c r="O13" t="s">
         <v>100</v>
@@ -5075,9 +5253,6 @@
       <c r="AI13" t="s">
         <v>131</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>131</v>
-      </c>
       <c r="AK13" t="s">
         <v>131</v>
       </c>
@@ -5096,9 +5271,6 @@
       <c r="AP13" t="s">
         <v>131</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>131</v>
-      </c>
       <c r="AR13" t="s">
         <v>131</v>
       </c>
@@ -5126,34 +5298,40 @@
       <c r="AZ13" t="s">
         <v>131</v>
       </c>
-      <c r="BK13" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV13" t="s">
-        <v>131</v>
-      </c>
-      <c r="DH13" t="s">
+      <c r="BA13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
         <v>232</v>
-      </c>
-      <c r="B14" t="s">
-        <v>233</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
@@ -5174,19 +5352,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K14" t="s">
         <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O14" t="s">
         <v>100</v>
@@ -5251,17 +5429,14 @@
       <c r="AI14" t="s">
         <v>131</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>131</v>
-      </c>
       <c r="AK14" t="s">
         <v>131</v>
       </c>
       <c r="AL14" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AN14" t="s">
         <v>131</v>
@@ -5272,9 +5447,6 @@
       <c r="AP14" t="s">
         <v>131</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>105</v>
-      </c>
       <c r="AR14" t="s">
         <v>131</v>
       </c>
@@ -5297,48 +5469,54 @@
         <v>131</v>
       </c>
       <c r="AY14" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AZ14" t="s">
         <v>131</v>
       </c>
-      <c r="BG14" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>131</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>131</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>131</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV14" t="s">
-        <v>131</v>
-      </c>
-      <c r="DH14" t="s">
-        <v>131</v>
-      </c>
-      <c r="DJ14" t="s">
+      <c r="BA14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>248</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" t="s">
         <v>232</v>
-      </c>
-      <c r="B15" t="s">
-        <v>233</v>
       </c>
       <c r="C15" t="s">
         <v>88</v>
@@ -5359,19 +5537,19 @@
         <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O15" t="s">
         <v>100</v>
@@ -5436,9 +5614,6 @@
       <c r="AI15" t="s">
         <v>105</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>131</v>
-      </c>
       <c r="AK15" t="s">
         <v>131</v>
       </c>
@@ -5457,9 +5632,6 @@
       <c r="AP15" t="s">
         <v>131</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>131</v>
-      </c>
       <c r="AR15" t="s">
         <v>131</v>
       </c>
@@ -5487,55 +5659,61 @@
       <c r="AZ15" t="s">
         <v>131</v>
       </c>
-      <c r="BK15" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>131</v>
+      <c r="BA15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>105</v>
       </c>
       <c r="BQ15" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>105</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>105</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>105</v>
-      </c>
-      <c r="CJ15" t="s">
-        <v>105</v>
-      </c>
-      <c r="CK15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA15" t="s">
         <v>105</v>
       </c>
       <c r="CL15" t="s">
         <v>105</v>
       </c>
-      <c r="CM15" t="s">
-        <v>105</v>
-      </c>
       <c r="CN15" t="s">
         <v>105</v>
       </c>
-      <c r="CV15" t="s">
-        <v>105</v>
-      </c>
-      <c r="DH15" t="s">
-        <v>105</v>
-      </c>
-      <c r="DK15" t="s">
+      <c r="CP15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>105</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>105</v>
+      </c>
+      <c r="DS15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="s">
         <v>232</v>
-      </c>
-      <c r="B16" t="s">
-        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
@@ -5556,25 +5734,25 @@
         <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
       </c>
       <c r="L16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O16" t="s">
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q16" t="s">
         <v>56</v>
@@ -5633,9 +5811,6 @@
       <c r="AI16" t="s">
         <v>131</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>131</v>
-      </c>
       <c r="AK16" t="s">
         <v>131</v>
       </c>
@@ -5654,9 +5829,6 @@
       <c r="AP16" t="s">
         <v>131</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>131</v>
-      </c>
       <c r="AR16" t="s">
         <v>131</v>
       </c>
@@ -5684,37 +5856,43 @@
       <c r="AZ16" t="s">
         <v>131</v>
       </c>
-      <c r="BK16" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>131</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>105</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>105</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>131</v>
-      </c>
-      <c r="DH16" t="s">
+      <c r="BA16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
         <v>232</v>
-      </c>
-      <c r="B17" t="s">
-        <v>233</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -5735,25 +5913,25 @@
         <v>52</v>
       </c>
       <c r="J17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K17" t="s">
         <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O17" t="s">
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q17" t="s">
         <v>56</v>
@@ -5812,9 +5990,6 @@
       <c r="AI17" t="s">
         <v>131</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>131</v>
-      </c>
       <c r="AK17" t="s">
         <v>131</v>
       </c>
@@ -5822,19 +5997,16 @@
         <v>131</v>
       </c>
       <c r="AM17" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AN17" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AO17" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AP17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AR17" t="s">
         <v>131</v>
@@ -5863,52 +6035,58 @@
       <c r="AZ17" t="s">
         <v>131</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO17" t="s">
+      <c r="BA17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM17" t="s">
         <v>131</v>
       </c>
       <c r="BQ17" t="s">
-        <v>105</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>105</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>105</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN17" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV17" t="s">
-        <v>131</v>
-      </c>
-      <c r="DH17" t="s">
-        <v>131</v>
-      </c>
-      <c r="DI17" t="s">
-        <v>105</v>
-      </c>
-      <c r="DL17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>131</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>105</v>
+      </c>
+      <c r="DT17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" t="s">
         <v>232</v>
-      </c>
-      <c r="B18" t="s">
-        <v>233</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -5929,19 +6107,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O18" t="s">
         <v>100</v>
@@ -6006,9 +6184,6 @@
       <c r="AI18" t="s">
         <v>131</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>131</v>
-      </c>
       <c r="AK18" t="s">
         <v>131</v>
       </c>
@@ -6018,18 +6193,15 @@
       <c r="AM18" t="s">
         <v>131</v>
       </c>
-      <c r="AN18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>131</v>
+      <c r="AN18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="AP18" t="s">
         <v>131</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>131</v>
-      </c>
       <c r="AR18" t="s">
         <v>131</v>
       </c>
@@ -6057,52 +6229,58 @@
       <c r="AZ18" t="s">
         <v>131</v>
       </c>
-      <c r="BK18" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO18" t="s">
+      <c r="BA18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM18" t="s">
         <v>131</v>
       </c>
       <c r="BQ18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CE18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CL18" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CY18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="DH18" t="s">
-        <v>131</v>
-      </c>
-      <c r="DM18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>105</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>105</v>
+      </c>
+      <c r="DG18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="DP18" t="s">
+        <v>131</v>
+      </c>
+      <c r="DU18" t="s">
         <v>102</v>
       </c>
-      <c r="DN18" t="s">
-        <v>105</v>
-      </c>
-      <c r="DO18" t="s">
+      <c r="DV18" t="s">
+        <v>105</v>
+      </c>
+      <c r="DW18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" t="s">
         <v>232</v>
-      </c>
-      <c r="B19" t="s">
-        <v>233</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
@@ -6129,13 +6307,13 @@
         <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O19" t="s">
         <v>100</v>
@@ -6200,11 +6378,8 @@
       <c r="AI19" t="s">
         <v>131</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>105</v>
-      </c>
       <c r="AK19" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AL19" t="s">
         <v>131</v>
@@ -6221,9 +6396,6 @@
       <c r="AP19" t="s">
         <v>131</v>
       </c>
-      <c r="AQ19" t="s">
-        <v>131</v>
-      </c>
       <c r="AR19" t="s">
         <v>131</v>
       </c>
@@ -6246,66 +6418,72 @@
         <v>131</v>
       </c>
       <c r="AY19" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AZ19" t="s">
         <v>131</v>
       </c>
-      <c r="BC19" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>105</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>105</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX19" t="s">
+      <c r="BA19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ19" t="s">
         <v>105</v>
       </c>
       <c r="CB19" t="s">
         <v>105</v>
       </c>
-      <c r="CL19" t="s">
-        <v>105</v>
-      </c>
-      <c r="CM19" t="s">
+      <c r="CF19" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT19" t="s">
         <v>56</v>
       </c>
-      <c r="CN19" t="s">
+      <c r="CU19" t="s">
         <v>56</v>
       </c>
-      <c r="CR19" t="s">
-        <v>105</v>
-      </c>
-      <c r="CS19" t="s">
-        <v>105</v>
-      </c>
-      <c r="CT19" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV19" t="s">
+      <c r="CZ19" t="s">
+        <v>105</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD19" t="s">
         <v>56</v>
       </c>
-      <c r="DH19" t="s">
-        <v>131</v>
-      </c>
-      <c r="DJ19" t="s">
-        <v>105</v>
-      </c>
       <c r="DP19" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>105</v>
+      </c>
+      <c r="DX19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" t="s">
         <v>232</v>
-      </c>
-      <c r="B20" t="s">
-        <v>233</v>
       </c>
       <c r="C20" t="s">
         <v>93</v>
@@ -6332,19 +6510,19 @@
         <v>56</v>
       </c>
       <c r="L20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q20" t="s">
         <v>56</v>
@@ -6403,14 +6581,11 @@
       <c r="AI20" t="s">
         <v>131</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>131</v>
-      </c>
       <c r="AK20" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AL20" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AM20" t="s">
         <v>131</v>
@@ -6424,9 +6599,6 @@
       <c r="AP20" t="s">
         <v>131</v>
       </c>
-      <c r="AQ20" t="s">
-        <v>131</v>
-      </c>
       <c r="AR20" t="s">
         <v>131</v>
       </c>
@@ -6443,7 +6615,7 @@
         <v>131</v>
       </c>
       <c r="AW20" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AX20" t="s">
         <v>131</v>
@@ -6454,46 +6626,52 @@
       <c r="AZ20" t="s">
         <v>131</v>
       </c>
-      <c r="BH20" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>105</v>
+      <c r="BA20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>131</v>
       </c>
       <c r="BJ20" t="s">
         <v>105</v>
       </c>
       <c r="BK20" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>105</v>
-      </c>
-      <c r="CL20" t="s">
-        <v>131</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV20" t="s">
-        <v>105</v>
-      </c>
-      <c r="DH20" t="s">
-        <v>105</v>
-      </c>
-      <c r="DQ20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>105</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>105</v>
+      </c>
+      <c r="DY20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" t="s">
         <v>232</v>
-      </c>
-      <c r="B21" t="s">
-        <v>233</v>
       </c>
       <c r="C21" t="s">
         <v>94</v>
@@ -6514,25 +6692,25 @@
         <v>52</v>
       </c>
       <c r="J21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K21" t="s">
         <v>56</v>
       </c>
       <c r="L21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q21" t="s">
         <v>56</v>
@@ -6591,9 +6769,6 @@
       <c r="AI21" t="s">
         <v>131</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>131</v>
-      </c>
       <c r="AK21" t="s">
         <v>131</v>
       </c>
@@ -6612,62 +6787,830 @@
       <c r="AP21" t="s">
         <v>131</v>
       </c>
-      <c r="AQ21" t="s">
-        <v>131</v>
-      </c>
       <c r="AR21" t="s">
         <v>131</v>
       </c>
       <c r="AS21" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AT21" t="s">
         <v>131</v>
       </c>
       <c r="AU21" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AV21" t="s">
         <v>131</v>
       </c>
       <c r="AW21" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="AX21" t="s">
         <v>131</v>
       </c>
       <c r="AY21" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="AZ21" t="s">
         <v>131</v>
       </c>
-      <c r="BK21" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>131</v>
-      </c>
-      <c r="CE21" t="s">
-        <v>105</v>
-      </c>
-      <c r="CK21" t="s">
-        <v>105</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>105</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN21" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV21" t="s">
-        <v>131</v>
-      </c>
-      <c r="DH21" t="s">
-        <v>131</v>
+      <c r="BA21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>105</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU21" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD21" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:132" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="s">
+        <v>348</v>
+      </c>
+      <c r="M22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>131</v>
+      </c>
+      <c r="S22" t="s">
+        <v>105</v>
+      </c>
+      <c r="T22" t="s">
+        <v>131</v>
+      </c>
+      <c r="U22" t="s">
+        <v>131</v>
+      </c>
+      <c r="V22" t="s">
+        <v>131</v>
+      </c>
+      <c r="W22" t="s">
+        <v>131</v>
+      </c>
+      <c r="X22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>105</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>324</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>131</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>105</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>324</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>105</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD22" t="s">
+        <v>131</v>
+      </c>
+      <c r="DP22" t="s">
+        <v>105</v>
+      </c>
+      <c r="DQ22" t="s">
+        <v>105</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>101</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>323</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:132" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>344</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
+        <v>345</v>
+      </c>
+      <c r="M23" t="s">
+        <v>337</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>131</v>
+      </c>
+      <c r="S23" t="s">
+        <v>131</v>
+      </c>
+      <c r="T23" t="s">
+        <v>131</v>
+      </c>
+      <c r="U23" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" t="s">
+        <v>131</v>
+      </c>
+      <c r="W23" t="s">
+        <v>131</v>
+      </c>
+      <c r="X23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>105</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>341</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>337</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>340</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>131</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:132" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>344</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" t="s">
+        <v>349</v>
+      </c>
+      <c r="N24" t="s">
+        <v>350</v>
+      </c>
+      <c r="O24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>131</v>
+      </c>
+      <c r="S24" t="s">
+        <v>131</v>
+      </c>
+      <c r="T24" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" t="s">
+        <v>131</v>
+      </c>
+      <c r="V24" t="s">
+        <v>131</v>
+      </c>
+      <c r="W24" t="s">
+        <v>131</v>
+      </c>
+      <c r="X24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>105</v>
+      </c>
+      <c r="CQ24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CR24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CU24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>131</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
